--- a/Code/Results/Cases/Case_8_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.93744585301918</v>
+        <v>13.92872523800672</v>
       </c>
       <c r="C2">
-        <v>7.833630674381673</v>
+        <v>8.085484950969358</v>
       </c>
       <c r="D2">
-        <v>5.53209421454605</v>
+        <v>5.465553719866381</v>
       </c>
       <c r="E2">
-        <v>8.443976489893473</v>
+        <v>8.479089083136131</v>
       </c>
       <c r="F2">
-        <v>20.32519277905878</v>
+        <v>19.07756624205565</v>
       </c>
       <c r="G2">
-        <v>2.111530846613156</v>
+        <v>5.283222382369243</v>
       </c>
       <c r="H2">
-        <v>2.502933459465421</v>
+        <v>2.232827480499416</v>
       </c>
       <c r="I2">
-        <v>3.438621074869967</v>
+        <v>3.131680234771454</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.80889568724456</v>
+        <v>15.69280654450112</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.83594448911435</v>
       </c>
       <c r="M2">
-        <v>11.66223544572284</v>
+        <v>10.37655926165641</v>
       </c>
       <c r="N2">
-        <v>7.17379188099229</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.92303903342661</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.349697261564593</v>
       </c>
       <c r="Q2">
-        <v>16.96161223329274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.84124564547598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.02995709683992</v>
+        <v>13.052160771589</v>
       </c>
       <c r="C3">
-        <v>7.622037437388957</v>
+        <v>7.832205797157457</v>
       </c>
       <c r="D3">
-        <v>5.367771697316778</v>
+        <v>5.26433166789571</v>
       </c>
       <c r="E3">
-        <v>8.183704350295425</v>
+        <v>8.267475282472834</v>
       </c>
       <c r="F3">
-        <v>20.04643182747935</v>
+        <v>18.82181642294613</v>
       </c>
       <c r="G3">
-        <v>2.115138820856703</v>
+        <v>5.755899271088313</v>
       </c>
       <c r="H3">
-        <v>2.693658121234979</v>
+        <v>2.400742921329968</v>
       </c>
       <c r="I3">
-        <v>3.592097190275074</v>
+        <v>3.258383144690426</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.84360145064903</v>
+        <v>15.7510155397917</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.96435083083289</v>
       </c>
       <c r="M3">
-        <v>11.02784557412332</v>
+        <v>10.36446446416555</v>
       </c>
       <c r="N3">
-        <v>6.891985907700941</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.28934288638463</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.074804138645763</v>
       </c>
       <c r="Q3">
-        <v>16.92460212646732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.81447579170659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.43805720496047</v>
+        <v>12.48076658879177</v>
       </c>
       <c r="C4">
-        <v>7.489246030601176</v>
+        <v>7.674243470436691</v>
       </c>
       <c r="D4">
-        <v>5.263844290344371</v>
+        <v>5.136709780294943</v>
       </c>
       <c r="E4">
-        <v>8.017834039401395</v>
+        <v>8.13287687563615</v>
       </c>
       <c r="F4">
-        <v>19.88103005179448</v>
+        <v>18.66753827364641</v>
       </c>
       <c r="G4">
-        <v>2.117430773982561</v>
+        <v>6.056312888653804</v>
       </c>
       <c r="H4">
-        <v>2.815150499623206</v>
+        <v>2.507790743957734</v>
       </c>
       <c r="I4">
-        <v>3.69050143723634</v>
+        <v>3.34003439281539</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.8680822804132</v>
+        <v>15.78819451887546</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.04371712174519</v>
       </c>
       <c r="M4">
-        <v>10.61892078787367</v>
+        <v>10.37293062808264</v>
       </c>
       <c r="N4">
-        <v>6.713165114352862</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.88154100119028</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.900851935203918</v>
       </c>
       <c r="Q4">
-        <v>16.90712845326811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.80094185386292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.18579447799637</v>
+        <v>12.23735990614597</v>
       </c>
       <c r="C5">
-        <v>7.43811640898029</v>
+        <v>7.613589634107547</v>
       </c>
       <c r="D5">
-        <v>5.222241099584685</v>
+        <v>5.085290380245416</v>
       </c>
       <c r="E5">
-        <v>7.946122973056434</v>
+        <v>8.074467957009251</v>
       </c>
       <c r="F5">
-        <v>19.80612166698469</v>
+        <v>18.59652952775971</v>
       </c>
       <c r="G5">
-        <v>2.118390575703927</v>
+        <v>6.182169889796058</v>
       </c>
       <c r="H5">
-        <v>2.866097338870095</v>
+        <v>2.552710246443596</v>
       </c>
       <c r="I5">
-        <v>3.734223783848027</v>
+        <v>3.377354365488293</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.87225687930572</v>
+        <v>15.79746112716148</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.07039730958223</v>
       </c>
       <c r="M5">
-        <v>10.44911472666199</v>
+        <v>10.37679113626724</v>
       </c>
       <c r="N5">
-        <v>6.639478204535809</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.71233051295665</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.829282191821216</v>
       </c>
       <c r="Q5">
-        <v>16.89477785463697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.78975595041567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.14055078283755</v>
+        <v>12.19372769271727</v>
       </c>
       <c r="C6">
-        <v>7.434139772407514</v>
+        <v>7.608762775517946</v>
       </c>
       <c r="D6">
-        <v>5.21710880434566</v>
+        <v>5.078618905463905</v>
       </c>
       <c r="E6">
-        <v>7.930895932442642</v>
+        <v>8.0617384695142</v>
       </c>
       <c r="F6">
-        <v>19.78278114256459</v>
+        <v>18.57394985317283</v>
       </c>
       <c r="G6">
-        <v>2.118558767331148</v>
+        <v>6.204250767347347</v>
       </c>
       <c r="H6">
-        <v>2.875016005275811</v>
+        <v>2.560587462877456</v>
       </c>
       <c r="I6">
-        <v>3.744832404503422</v>
+        <v>3.387565599276143</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.8649592040838</v>
+        <v>15.79141004182518</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.06776587278983</v>
       </c>
       <c r="M6">
-        <v>10.42263337348772</v>
+        <v>10.37329239080089</v>
       </c>
       <c r="N6">
-        <v>6.627858450458344</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.6858838014147</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.817987256281343</v>
       </c>
       <c r="Q6">
-        <v>16.88483603775763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.78014799707413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.42715386181727</v>
+        <v>12.47329879733363</v>
       </c>
       <c r="C7">
-        <v>7.500935539040852</v>
+        <v>7.678247230519506</v>
       </c>
       <c r="D7">
-        <v>5.268234756055404</v>
+        <v>5.150796688997593</v>
       </c>
       <c r="E7">
-        <v>8.008154006368704</v>
+        <v>8.126322630413075</v>
       </c>
       <c r="F7">
-        <v>19.85015807026624</v>
+        <v>18.58487863142507</v>
       </c>
       <c r="G7">
-        <v>2.117464106083631</v>
+        <v>6.110892048074391</v>
       </c>
       <c r="H7">
-        <v>2.816880929445436</v>
+        <v>2.510531621523481</v>
       </c>
       <c r="I7">
-        <v>3.699776314869131</v>
+        <v>3.352220400398289</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.84622351164199</v>
+        <v>15.74153686821531</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.00175199318746</v>
       </c>
       <c r="M7">
-        <v>10.62202847763182</v>
+        <v>10.34471217327938</v>
       </c>
       <c r="N7">
-        <v>6.714062377136612</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.88050899116384</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.900047092884949</v>
       </c>
       <c r="Q7">
-        <v>16.88525551725689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.74206683848935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.62252334771767</v>
+        <v>13.63382208121173</v>
       </c>
       <c r="C8">
-        <v>7.77741139184378</v>
+        <v>7.986572715665415</v>
       </c>
       <c r="D8">
-        <v>5.482524971551431</v>
+        <v>5.435019000028689</v>
       </c>
       <c r="E8">
-        <v>8.344473660367248</v>
+        <v>8.404413141721648</v>
       </c>
       <c r="F8">
-        <v>20.18923174690817</v>
+        <v>18.78177429095147</v>
       </c>
       <c r="G8">
-        <v>2.11278464213698</v>
+        <v>5.709063400371756</v>
       </c>
       <c r="H8">
-        <v>2.569092132023858</v>
+        <v>2.294760247302829</v>
       </c>
       <c r="I8">
-        <v>3.501739577524964</v>
+        <v>3.191719139122816</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.79141701097995</v>
+        <v>15.60103787214642</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.78618888860891</v>
       </c>
       <c r="M8">
-        <v>11.45429010808762</v>
+        <v>10.29332336734442</v>
       </c>
       <c r="N8">
-        <v>7.080274822453552</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.70276718309306</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.25321767021941</v>
       </c>
       <c r="Q8">
-        <v>16.9193373845344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.68160932998908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.70449579147448</v>
+        <v>15.64706158552777</v>
       </c>
       <c r="C9">
-        <v>8.274982494645215</v>
+        <v>8.579593280831189</v>
       </c>
       <c r="D9">
-        <v>5.868994001809902</v>
+        <v>5.913840200555705</v>
       </c>
       <c r="E9">
-        <v>8.968659622696604</v>
+        <v>8.916340880873564</v>
       </c>
       <c r="F9">
-        <v>20.95014207383354</v>
+        <v>19.43117430087565</v>
       </c>
       <c r="G9">
-        <v>2.104169287891525</v>
+        <v>4.680435286745378</v>
       </c>
       <c r="H9">
-        <v>2.115623983152996</v>
+        <v>1.896658296176162</v>
       </c>
       <c r="I9">
-        <v>3.131805882884295</v>
+        <v>2.885769512570352</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.74889193120916</v>
+        <v>15.4678571848629</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.48279490011165</v>
       </c>
       <c r="M9">
-        <v>12.92093710965664</v>
+        <v>10.40096643947659</v>
       </c>
       <c r="N9">
-        <v>7.746590384511616</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.1690398678338</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.904748976649731</v>
       </c>
       <c r="Q9">
-        <v>17.0675939809043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.76049079048376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.04495901817769</v>
+        <v>16.9599103707427</v>
       </c>
       <c r="C10">
-        <v>8.673321783865189</v>
+        <v>8.999416940214511</v>
       </c>
       <c r="D10">
-        <v>6.161964028318111</v>
+        <v>6.319374701710288</v>
       </c>
       <c r="E10">
-        <v>9.226325816329016</v>
+        <v>9.121440109630274</v>
       </c>
       <c r="F10">
-        <v>21.38777132467978</v>
+        <v>19.51539271714186</v>
       </c>
       <c r="G10">
-        <v>2.098294420339931</v>
+        <v>5.186848704602805</v>
       </c>
       <c r="H10">
-        <v>1.835140688407913</v>
+        <v>1.660867585035708</v>
       </c>
       <c r="I10">
-        <v>2.890319797883624</v>
+        <v>2.695901850589292</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.62884137329811</v>
+        <v>15.15068014285384</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.10271129691736</v>
       </c>
       <c r="M10">
-        <v>13.91724847881562</v>
+        <v>10.3669468514317</v>
       </c>
       <c r="N10">
-        <v>8.072169034826397</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.14658419401983</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.213780713053215</v>
       </c>
       <c r="Q10">
-        <v>17.09447379415726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.53493495834964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.43318541092963</v>
+        <v>17.38927862153512</v>
       </c>
       <c r="C11">
-        <v>9.267944054730586</v>
+        <v>9.507861116473805</v>
       </c>
       <c r="D11">
-        <v>6.507115587755023</v>
+        <v>6.801133898961045</v>
       </c>
       <c r="E11">
-        <v>8.032276516123412</v>
+        <v>8.002236685680472</v>
       </c>
       <c r="F11">
-        <v>20.40690208211592</v>
+        <v>18.05456573034486</v>
       </c>
       <c r="G11">
-        <v>2.096534534491167</v>
+        <v>8.554633616784789</v>
       </c>
       <c r="H11">
-        <v>2.825480893454133</v>
+        <v>2.726950592603283</v>
       </c>
       <c r="I11">
-        <v>2.845155375838243</v>
+        <v>2.677386525386115</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.74042515011123</v>
+        <v>14.13482210473788</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.3514641396451</v>
       </c>
       <c r="M11">
-        <v>14.48133220774661</v>
+        <v>9.609816560584415</v>
       </c>
       <c r="N11">
-        <v>7.107134646981763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.65370219081309</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.225389716699755</v>
       </c>
       <c r="Q11">
-        <v>16.22193370248365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.35073459076951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.49749858292602</v>
+        <v>17.48566320298902</v>
       </c>
       <c r="C12">
-        <v>9.718275889016386</v>
+        <v>9.884959285332068</v>
       </c>
       <c r="D12">
-        <v>6.741250057672457</v>
+        <v>7.096142165554093</v>
       </c>
       <c r="E12">
-        <v>7.19237387672043</v>
+        <v>7.220011156121278</v>
       </c>
       <c r="F12">
-        <v>19.51569972664785</v>
+        <v>17.01145453608951</v>
       </c>
       <c r="G12">
-        <v>2.096151514557757</v>
+        <v>10.33126783778445</v>
       </c>
       <c r="H12">
-        <v>4.197901079928184</v>
+        <v>4.132970210985921</v>
       </c>
       <c r="I12">
-        <v>2.836010618339645</v>
+        <v>2.673610991211748</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.07665383348647</v>
+        <v>13.517960174056</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.93857101788025</v>
       </c>
       <c r="M12">
-        <v>14.75117881025265</v>
+        <v>9.096940404536602</v>
       </c>
       <c r="N12">
-        <v>6.262301964790788</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.88951646882405</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.370205726019552</v>
       </c>
       <c r="Q12">
-        <v>15.51450734923953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.58099391929141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.31015807670266</v>
+        <v>17.31999793064946</v>
       </c>
       <c r="C13">
-        <v>10.10121519182031</v>
+        <v>10.23553466733921</v>
       </c>
       <c r="D13">
-        <v>6.91323982126917</v>
+        <v>7.245334759833987</v>
       </c>
       <c r="E13">
-        <v>6.62966512321696</v>
+        <v>6.705947762399902</v>
       </c>
       <c r="F13">
-        <v>18.58612813496868</v>
+        <v>16.27945797218764</v>
       </c>
       <c r="G13">
-        <v>2.096836702540648</v>
+        <v>9.956606006621266</v>
       </c>
       <c r="H13">
-        <v>5.617270118909443</v>
+        <v>5.565037686781547</v>
       </c>
       <c r="I13">
-        <v>2.869007982900095</v>
+        <v>2.698387003420779</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.51935698402402</v>
+        <v>13.15794956426698</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.71793346318093</v>
       </c>
       <c r="M13">
-        <v>14.82502506103714</v>
+        <v>8.758130596077272</v>
       </c>
       <c r="N13">
-        <v>5.469087861169982</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.95040760908329</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.579012966480161</v>
       </c>
       <c r="Q13">
-        <v>14.85984862365573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.10722152471411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.06085401133745</v>
+        <v>17.08167152009897</v>
       </c>
       <c r="C14">
-        <v>10.34923700045852</v>
+        <v>10.48088069965773</v>
       </c>
       <c r="D14">
-        <v>7.00880975427839</v>
+        <v>7.286026991285823</v>
       </c>
       <c r="E14">
-        <v>6.440690060921897</v>
+        <v>6.548625574255934</v>
       </c>
       <c r="F14">
-        <v>17.90993526373767</v>
+        <v>15.88719609129712</v>
       </c>
       <c r="G14">
-        <v>2.097799003026331</v>
+        <v>8.760022424539009</v>
       </c>
       <c r="H14">
-        <v>6.624271864423931</v>
+        <v>6.576009170066423</v>
       </c>
       <c r="I14">
-        <v>2.913891632897286</v>
+        <v>2.732322408732483</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.18454226354089</v>
+        <v>13.00507597938715</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.63001140725344</v>
       </c>
       <c r="M14">
-        <v>14.79051963517077</v>
+        <v>8.594494775643733</v>
       </c>
       <c r="N14">
-        <v>4.963594357899148</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.91567624025192</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.080401354051674</v>
       </c>
       <c r="Q14">
-        <v>14.42658833243271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.89094180764881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.9428575500703</v>
+        <v>16.96470594424473</v>
       </c>
       <c r="C15">
-        <v>10.39696417818526</v>
+        <v>10.53886557969799</v>
       </c>
       <c r="D15">
-        <v>7.019835130565546</v>
+        <v>7.26718543158947</v>
       </c>
       <c r="E15">
-        <v>6.422112992928667</v>
+        <v>6.539884278913656</v>
       </c>
       <c r="F15">
-        <v>17.72911445770668</v>
+        <v>15.83668538259536</v>
       </c>
       <c r="G15">
-        <v>2.09828172049828</v>
+        <v>8.085463120413529</v>
       </c>
       <c r="H15">
-        <v>6.85905244658977</v>
+        <v>6.810526889078025</v>
       </c>
       <c r="I15">
-        <v>2.938782012299689</v>
+        <v>2.752602577837207</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.11758006652118</v>
+        <v>13.00048111671658</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.62941084767399</v>
       </c>
       <c r="M15">
-        <v>14.74143020798101</v>
+        <v>8.57881925327337</v>
       </c>
       <c r="N15">
-        <v>4.848089008346403</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.87052197243107</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.968633298598382</v>
       </c>
       <c r="Q15">
-        <v>14.32643606727701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.88081323269965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.41598205117863</v>
+        <v>16.42483245946273</v>
       </c>
       <c r="C16">
-        <v>10.1720192204987</v>
+        <v>10.4079321640218</v>
       </c>
       <c r="D16">
-        <v>6.871018869108478</v>
+        <v>6.982532792391003</v>
       </c>
       <c r="E16">
-        <v>6.395913275123936</v>
+        <v>6.540357538816057</v>
       </c>
       <c r="F16">
-        <v>17.68933990459073</v>
+        <v>16.29911492405201</v>
       </c>
       <c r="G16">
-        <v>2.10066248521445</v>
+        <v>5.250916332784142</v>
       </c>
       <c r="H16">
-        <v>6.663054680337913</v>
+        <v>6.602885766945107</v>
       </c>
       <c r="I16">
-        <v>3.040924732926479</v>
+        <v>2.828859989918685</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.27780901690074</v>
+        <v>13.31959813528428</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.84482717566887</v>
       </c>
       <c r="M16">
-        <v>14.32659562152185</v>
+        <v>8.808926436331868</v>
       </c>
       <c r="N16">
-        <v>4.838704418725555</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.49100618200607</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.977278081471549</v>
       </c>
       <c r="Q16">
-        <v>14.43571374056383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.30188705460673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.14182548819615</v>
+        <v>16.13839263498543</v>
       </c>
       <c r="C17">
-        <v>9.858253043290354</v>
+        <v>10.14993957004599</v>
       </c>
       <c r="D17">
-        <v>6.702518725255437</v>
+        <v>6.757557300002024</v>
       </c>
       <c r="E17">
-        <v>6.438344803772877</v>
+        <v>6.579116582563261</v>
       </c>
       <c r="F17">
-        <v>18.02287526587999</v>
+        <v>16.80735629406852</v>
       </c>
       <c r="G17">
-        <v>2.101985316864381</v>
+        <v>4.467070539077211</v>
       </c>
       <c r="H17">
-        <v>5.947902236764429</v>
+        <v>5.874066104300919</v>
       </c>
       <c r="I17">
-        <v>3.096299254766159</v>
+        <v>2.871084127039205</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.57057781487576</v>
+        <v>13.64184345872012</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.07333248612606</v>
       </c>
       <c r="M17">
-        <v>14.02087130621251</v>
+        <v>9.052670820967569</v>
       </c>
       <c r="N17">
-        <v>5.090689924126722</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.20863035933951</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.238354835908966</v>
       </c>
       <c r="Q17">
-        <v>14.74616472041857</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.71243148358839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.06788310693152</v>
+        <v>16.04573246204644</v>
       </c>
       <c r="C18">
-        <v>9.436473809850025</v>
+        <v>9.771353944414495</v>
       </c>
       <c r="D18">
-        <v>6.498282426400985</v>
+        <v>6.535826600551374</v>
       </c>
       <c r="E18">
-        <v>6.744723965142146</v>
+        <v>6.843779320310555</v>
       </c>
       <c r="F18">
-        <v>18.73548109159449</v>
+        <v>17.53261134117511</v>
       </c>
       <c r="G18">
-        <v>2.102475906808451</v>
+        <v>4.271222629224888</v>
       </c>
       <c r="H18">
-        <v>4.735394860792667</v>
+        <v>4.640125182678009</v>
       </c>
       <c r="I18">
-        <v>3.105240160588165</v>
+        <v>2.873441669614022</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.04772174357874</v>
+        <v>14.07168585100247</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.38518378030216</v>
       </c>
       <c r="M18">
-        <v>13.77684070038064</v>
+        <v>9.389637843679603</v>
       </c>
       <c r="N18">
-        <v>5.660024276103035</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.98598943487657</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.811964325948152</v>
       </c>
       <c r="Q18">
-        <v>15.28819697650196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.24764758514382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.15119044639591</v>
+        <v>16.10491097831468</v>
       </c>
       <c r="C19">
-        <v>9.024443946131353</v>
+        <v>9.388606212848776</v>
       </c>
       <c r="D19">
-        <v>6.298007105459103</v>
+        <v>6.339679099684162</v>
       </c>
       <c r="E19">
-        <v>7.47788603261806</v>
+        <v>7.503672714919864</v>
       </c>
       <c r="F19">
-        <v>19.65222666689125</v>
+        <v>18.37141621456727</v>
       </c>
       <c r="G19">
-        <v>2.102221251355763</v>
+        <v>4.188379701532802</v>
       </c>
       <c r="H19">
-        <v>3.323788674658586</v>
+        <v>3.191988173299811</v>
       </c>
       <c r="I19">
-        <v>3.091660167262777</v>
+        <v>2.863374021048888</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.64301150252802</v>
+        <v>14.57098242593442</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.74932438085679</v>
       </c>
       <c r="M19">
-        <v>13.6144388315312</v>
+        <v>9.788723011392294</v>
       </c>
       <c r="N19">
-        <v>6.507459402089172</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.84345801624936</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.661033797329841</v>
       </c>
       <c r="Q19">
-        <v>15.9581603421797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.84927252146838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.68472390056194</v>
+        <v>16.59913539336572</v>
       </c>
       <c r="C20">
-        <v>8.608795154132615</v>
+        <v>8.967458265607181</v>
       </c>
       <c r="D20">
-        <v>6.101787413683008</v>
+        <v>6.198813169072158</v>
       </c>
       <c r="E20">
-        <v>9.129513835426717</v>
+        <v>9.032416875893762</v>
       </c>
       <c r="F20">
-        <v>21.1797638953945</v>
+        <v>19.57439977340127</v>
       </c>
       <c r="G20">
-        <v>2.099872072731401</v>
+        <v>4.297992229016975</v>
       </c>
       <c r="H20">
-        <v>1.909545585018141</v>
+        <v>1.719891485433726</v>
       </c>
       <c r="I20">
-        <v>2.982584077811151</v>
+        <v>2.777644365322926</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.58901399670135</v>
+        <v>15.25688762101479</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.21651130671301</v>
       </c>
       <c r="M20">
-        <v>13.67689159364661</v>
+        <v>10.39246699634691</v>
       </c>
       <c r="N20">
-        <v>7.987297601747015</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.92162412376738</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.137634712444113</v>
       </c>
       <c r="Q20">
-        <v>17.0164019928859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.6538275385445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.69911949531099</v>
+        <v>17.63177187682067</v>
       </c>
       <c r="C21">
-        <v>8.837551599260815</v>
+        <v>9.051298154078117</v>
       </c>
       <c r="D21">
-        <v>6.281616314732872</v>
+        <v>6.632658053243176</v>
       </c>
       <c r="E21">
-        <v>9.577806183050853</v>
+        <v>9.472819780417229</v>
       </c>
       <c r="F21">
-        <v>21.74804998766078</v>
+        <v>18.96302783210762</v>
       </c>
       <c r="G21">
-        <v>2.095293072948402</v>
+        <v>10.07987142264729</v>
       </c>
       <c r="H21">
-        <v>1.651514402610204</v>
+        <v>1.609420348805412</v>
       </c>
       <c r="I21">
-        <v>2.789669718137898</v>
+        <v>2.640295443403378</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.66515819551774</v>
+        <v>14.704941896542</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.72880268242578</v>
       </c>
       <c r="M21">
-        <v>14.38402012789946</v>
+        <v>10.11316280329931</v>
       </c>
       <c r="N21">
-        <v>8.430563593849016</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.5630434946381</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.545872867083855</v>
       </c>
       <c r="Q21">
-        <v>17.21603062739301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.98262222173788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.3286163194126</v>
+        <v>18.27784533857538</v>
       </c>
       <c r="C22">
-        <v>8.991223130651795</v>
+        <v>9.107961651282274</v>
       </c>
       <c r="D22">
-        <v>6.40207361458927</v>
+        <v>6.930801892535367</v>
       </c>
       <c r="E22">
-        <v>9.788915684791688</v>
+        <v>9.691833307473688</v>
       </c>
       <c r="F22">
-        <v>22.08933930376566</v>
+        <v>18.48287317856904</v>
       </c>
       <c r="G22">
-        <v>2.092389374200898</v>
+        <v>14.91325678682319</v>
       </c>
       <c r="H22">
-        <v>1.619268496642563</v>
+        <v>1.727484535451201</v>
       </c>
       <c r="I22">
-        <v>2.657180677765288</v>
+        <v>2.539125503366271</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.69722525969197</v>
+        <v>14.30563771581716</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.40564610853252</v>
       </c>
       <c r="M22">
-        <v>14.83023177517155</v>
+        <v>9.89110764068314</v>
       </c>
       <c r="N22">
-        <v>8.643530944315202</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.96506176026633</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.73575487371307</v>
       </c>
       <c r="Q22">
-        <v>17.32751812977746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.48695253500605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.00177995671095</v>
+        <v>17.93573292296581</v>
       </c>
       <c r="C23">
-        <v>8.895866641503202</v>
+        <v>9.082010045680732</v>
       </c>
       <c r="D23">
-        <v>6.332763903473085</v>
+        <v>6.742220213208321</v>
       </c>
       <c r="E23">
-        <v>9.68531045882324</v>
+        <v>9.576060562949822</v>
       </c>
       <c r="F23">
-        <v>21.93825434047638</v>
+        <v>18.88953000834401</v>
       </c>
       <c r="G23">
-        <v>2.093915163306807</v>
+        <v>11.52214286987444</v>
       </c>
       <c r="H23">
-        <v>1.579809356609362</v>
+        <v>1.667032113963587</v>
       </c>
       <c r="I23">
-        <v>2.715580396521557</v>
+        <v>2.576785539858207</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.70467128049748</v>
+        <v>14.59828978047063</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.62759026143622</v>
       </c>
       <c r="M23">
-        <v>14.58879001988443</v>
+        <v>10.07984017221027</v>
       </c>
       <c r="N23">
-        <v>8.528599012357139</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.75435957604278</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.636254534652569</v>
       </c>
       <c r="Q23">
-        <v>17.29162325275885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.8608450458627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.69502091857567</v>
+        <v>16.60641659729712</v>
       </c>
       <c r="C24">
-        <v>8.550507391302739</v>
+        <v>8.904985977805747</v>
       </c>
       <c r="D24">
-        <v>6.071850225467895</v>
+        <v>6.166722270024506</v>
       </c>
       <c r="E24">
-        <v>9.267134110655654</v>
+        <v>9.161906100128171</v>
       </c>
       <c r="F24">
-        <v>21.32550451686311</v>
+        <v>19.71672934595679</v>
       </c>
       <c r="G24">
-        <v>2.099835124638107</v>
+        <v>4.261292300881643</v>
       </c>
       <c r="H24">
-        <v>1.888620760378241</v>
+        <v>1.69826328519783</v>
       </c>
       <c r="I24">
-        <v>2.963052350852692</v>
+        <v>2.754117350071958</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.70180043460735</v>
+        <v>15.35782855663327</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.29100246421556</v>
       </c>
       <c r="M24">
-        <v>13.64546752053184</v>
+        <v>10.47162872200797</v>
       </c>
       <c r="N24">
-        <v>8.082988900726178</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.89274864155989</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.234139425630493</v>
       </c>
       <c r="Q24">
-        <v>17.13012766554496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.76259666926262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.15907597739687</v>
+        <v>15.11597093216321</v>
       </c>
       <c r="C25">
-        <v>8.164500303542745</v>
+        <v>8.460182521234373</v>
       </c>
       <c r="D25">
-        <v>5.775839947068871</v>
+        <v>5.784188876848829</v>
       </c>
       <c r="E25">
-        <v>8.791187373550208</v>
+        <v>8.765902188355819</v>
       </c>
       <c r="F25">
-        <v>20.68872479206198</v>
+        <v>19.27399856108394</v>
       </c>
       <c r="G25">
-        <v>2.106470474643344</v>
+        <v>4.7860511535943</v>
       </c>
       <c r="H25">
-        <v>2.23636692276032</v>
+        <v>2.001139353008605</v>
       </c>
       <c r="I25">
-        <v>3.244424471622429</v>
+        <v>2.983161234997682</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.71860810726028</v>
+        <v>15.50254257251903</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.56436162089556</v>
       </c>
       <c r="M25">
-        <v>12.54972760462278</v>
+        <v>10.35849489630039</v>
       </c>
       <c r="N25">
-        <v>7.575002216879658</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.80213389438718</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.73860497333416</v>
       </c>
       <c r="Q25">
-        <v>16.98451165367359</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.75138524966794</v>
       </c>
     </row>
   </sheetData>
